--- a/data/calcs/relief_calcs/season_mu_std.xlsx
+++ b/data/calcs/relief_calcs/season_mu_std.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.984037244184296</v>
+        <v>4.849157381411206</v>
       </c>
       <c r="C2" t="n">
-        <v>3.579858339375884</v>
+        <v>2.248398120719458</v>
       </c>
       <c r="D2" t="n">
-        <v>2.052732600845689</v>
+        <v>1.321175572144602</v>
       </c>
       <c r="E2" t="n">
-        <v>1.117981085723475</v>
+        <v>0.7162517619537686</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9193202231202148</v>
+        <v>0.6413048103259404</v>
       </c>
       <c r="G2" t="n">
-        <v>0.148580172456752</v>
+        <v>0.1443876736463651</v>
       </c>
       <c r="H2" t="n">
-        <v>2.052732600845689</v>
+        <v>1.321175572144602</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4731123459794797</v>
+        <v>-0.4895315679580026</v>
       </c>
       <c r="J2" t="n">
-        <v>29.10305775764439</v>
+        <v>25.30114358322745</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.834785697648645</v>
+        <v>4.324475012548731</v>
       </c>
       <c r="C3" t="n">
-        <v>2.706425084230318</v>
+        <v>1.688837555124756</v>
       </c>
       <c r="D3" t="n">
-        <v>1.671064180713995</v>
+        <v>0.8147741501526902</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8921585212819828</v>
+        <v>0.5961483176466634</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6811807173576306</v>
+        <v>0.55087052879883</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06606932800777042</v>
+        <v>0.08702948202025337</v>
       </c>
       <c r="H3" t="n">
-        <v>1.671064180713995</v>
+        <v>0.8147741501526902</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7685311107150282</v>
+        <v>0.8845573435799202</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77359785688244</v>
+        <v>25.16918905270809</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.809573375639023</v>
+        <v>4.702450645393925</v>
       </c>
       <c r="C4" t="n">
-        <v>3.727441287972201</v>
+        <v>2.319312000583715</v>
       </c>
       <c r="D4" t="n">
-        <v>2.003871500873904</v>
+        <v>1.290357963888288</v>
       </c>
       <c r="E4" t="n">
-        <v>1.243959254315879</v>
+        <v>0.7674781856468637</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8261577944886083</v>
+        <v>0.5448263443964827</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1561813639102516</v>
+        <v>0.1511428753994251</v>
       </c>
       <c r="H4" t="n">
-        <v>2.003871500873904</v>
+        <v>1.290357963888288</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.429542407380274</v>
+        <v>-0.4605225687161584</v>
       </c>
       <c r="J4" t="n">
-        <v>27.42473745624271</v>
+        <v>24.21774193548387</v>
       </c>
     </row>
     <row r="5">
@@ -589,31 +589,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.100526345132203</v>
+        <v>4.6547178614937</v>
       </c>
       <c r="C5" t="n">
-        <v>2.958837026333424</v>
+        <v>1.78598724573049</v>
       </c>
       <c r="D5" t="n">
-        <v>1.637412266161621</v>
+        <v>0.8917589826321298</v>
       </c>
       <c r="E5" t="n">
-        <v>1.028417269555032</v>
+        <v>0.6077832625441527</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6353248908429998</v>
+        <v>0.4444476818094891</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07016545166300105</v>
+        <v>0.08595047689350012</v>
       </c>
       <c r="H5" t="n">
-        <v>1.637412266161621</v>
+        <v>0.8917589826321298</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8659935724341549</v>
+        <v>0.8164104496837652</v>
       </c>
       <c r="J5" t="n">
-        <v>21.81906789466433</v>
+        <v>24.1987265330833</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.923499451842191</v>
+        <v>4.937484411441052</v>
       </c>
       <c r="C6" t="n">
-        <v>3.816867295857204</v>
+        <v>2.443172161776212</v>
       </c>
       <c r="D6" t="n">
-        <v>2.091095229460292</v>
+        <v>1.351174618310682</v>
       </c>
       <c r="E6" t="n">
-        <v>1.233900233514889</v>
+        <v>0.7959292346584431</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9051434903907124</v>
+        <v>0.6267609685603647</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1539596340299352</v>
+        <v>0.1490528231194562</v>
       </c>
       <c r="H6" t="n">
-        <v>2.091095229460292</v>
+        <v>1.351174618310682</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4425166006014454</v>
+        <v>-0.5122732321499877</v>
       </c>
       <c r="J6" t="n">
-        <v>29.2756183745583</v>
+        <v>25.52412868632708</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.886720250705583</v>
+        <v>4.642675373610998</v>
       </c>
       <c r="C7" t="n">
-        <v>2.911454099580232</v>
+        <v>1.788619299050781</v>
       </c>
       <c r="D7" t="n">
-        <v>1.652820152773797</v>
+        <v>0.8291683780629514</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9702169511895826</v>
+        <v>0.5882307812165847</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6831593734881528</v>
+        <v>0.508538472076837</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0655295696686256</v>
+        <v>0.0792104846954539</v>
       </c>
       <c r="H7" t="n">
-        <v>1.652820152773797</v>
+        <v>0.8291683780629514</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7728249558319132</v>
+        <v>0.8249792526868147</v>
       </c>
       <c r="J7" t="n">
-        <v>22.72522249357511</v>
+        <v>25.18079767178642</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.462610970014843</v>
+        <v>4.332503239691884</v>
       </c>
       <c r="C8" t="n">
-        <v>3.750030687064462</v>
+        <v>2.258784850519582</v>
       </c>
       <c r="D8" t="n">
-        <v>2.094611669634504</v>
+        <v>1.275894941232602</v>
       </c>
       <c r="E8" t="n">
-        <v>1.299826695956331</v>
+        <v>0.7613507843784619</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8169843258585326</v>
+        <v>0.5336702779734646</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1561924111957851</v>
+        <v>0.150092805546437</v>
       </c>
       <c r="H8" t="n">
-        <v>2.094611669634504</v>
+        <v>1.275894941232602</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3872958862971158</v>
+        <v>-0.4173430637859449</v>
       </c>
       <c r="J8" t="n">
-        <v>32.32773109243698</v>
+        <v>29.81281618887015</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.7930049643301</v>
+        <v>3.297035853242284</v>
       </c>
       <c r="C9" t="n">
-        <v>2.892202025722697</v>
+        <v>1.697809794214145</v>
       </c>
       <c r="D9" t="n">
-        <v>1.680548496146524</v>
+        <v>0.8562049726558092</v>
       </c>
       <c r="E9" t="n">
-        <v>1.030356717016077</v>
+        <v>0.5345199867736541</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6241673164516801</v>
+        <v>0.4178948825234093</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06420437950735478</v>
+        <v>0.08104714984533139</v>
       </c>
       <c r="H9" t="n">
-        <v>1.680548496146524</v>
+        <v>0.8562049726558092</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6628923203589951</v>
+        <v>0.6975964498132601</v>
       </c>
       <c r="J9" t="n">
-        <v>23.88951047999667</v>
+        <v>26.98104385230003</v>
       </c>
     </row>
   </sheetData>

--- a/data/calcs/relief_calcs/season_mu_std.xlsx
+++ b/data/calcs/relief_calcs/season_mu_std.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,20 +461,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>chase%/G</t>
+          <t>d2S/G</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>strike/G</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>d2S/G</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>GP</t>
         </is>
@@ -487,31 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.849157381411206</v>
+        <v>3.856595744680852</v>
       </c>
       <c r="C2" t="n">
-        <v>2.248398120719458</v>
+        <v>1.390973883572568</v>
       </c>
       <c r="D2" t="n">
-        <v>1.321175572144602</v>
+        <v>0.9647241327751196</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7162517619537686</v>
+        <v>0.4773101076555024</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6413048103259404</v>
+        <v>0.5428939892344498</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1443876736463651</v>
+        <v>-0.4822692384370016</v>
       </c>
       <c r="H2" t="n">
-        <v>1.321175572144602</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.4895315679580026</v>
-      </c>
-      <c r="J2" t="n">
-        <v>25.30114358322745</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +505,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.324475012548731</v>
+        <v>1.012668185914867</v>
       </c>
       <c r="C3" t="n">
-        <v>1.688837555124756</v>
+        <v>0.7710224487531796</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8147741501526902</v>
+        <v>0.3964093900324763</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5961483176466634</v>
+        <v>0.1321134012105241</v>
       </c>
       <c r="F3" t="n">
-        <v>0.55087052879883</v>
+        <v>0.1511331064038821</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08702948202025337</v>
+        <v>0.2023152211916691</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8147741501526902</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.8845573435799202</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25.16918905270809</v>
+        <v>19.14605516996722</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +533,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.702450645393925</v>
+        <v>3.251509433962264</v>
       </c>
       <c r="C4" t="n">
-        <v>2.319312000583715</v>
+        <v>1.833867010766729</v>
       </c>
       <c r="D4" t="n">
-        <v>1.290357963888288</v>
+        <v>1.365235215333583</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7674781856468637</v>
+        <v>0.9275340821386783</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5448263443964827</v>
+        <v>0.6017599952851432</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1511428753994251</v>
+        <v>-0.4484816159809507</v>
       </c>
       <c r="H4" t="n">
-        <v>1.290357963888288</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-0.4605225687161584</v>
-      </c>
-      <c r="J4" t="n">
-        <v>24.21774193548387</v>
+        <v>35.125</v>
       </c>
     </row>
     <row r="5">
@@ -589,31 +561,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.6547178614937</v>
+        <v>1.211633348047831</v>
       </c>
       <c r="C5" t="n">
-        <v>1.78598724573049</v>
+        <v>1.685498202578049</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8917589826321298</v>
+        <v>0.5570616445305397</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6077832625441527</v>
+        <v>0.6100793432578291</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4444476818094891</v>
+        <v>0.3165990979509523</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08595047689350012</v>
+        <v>0.6372786881767656</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8917589826321298</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.8164104496837652</v>
-      </c>
-      <c r="J5" t="n">
-        <v>24.1987265330833</v>
+        <v>33.5790644811402</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +589,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.937484411441052</v>
+        <v>4.197692307692307</v>
       </c>
       <c r="C6" t="n">
-        <v>2.443172161776212</v>
+        <v>1.979397761301615</v>
       </c>
       <c r="D6" t="n">
-        <v>1.351174618310682</v>
+        <v>1.125522514366197</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7959292346584431</v>
+        <v>0.5956844908491161</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6267609685603647</v>
+        <v>0.5292202421171368</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1490528231194562</v>
+        <v>-0.5590969144459537</v>
       </c>
       <c r="H6" t="n">
-        <v>1.351174618310682</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.5122732321499877</v>
-      </c>
-      <c r="J6" t="n">
-        <v>25.52412868632708</v>
+        <v>36.125</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +617,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.642675373610998</v>
+        <v>1.781673167564158</v>
       </c>
       <c r="C7" t="n">
-        <v>1.788619299050781</v>
+        <v>0.9404541246601121</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8291683780629514</v>
+        <v>0.3474999627343497</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5882307812165847</v>
+        <v>0.1251872369958739</v>
       </c>
       <c r="F7" t="n">
-        <v>0.508538472076837</v>
+        <v>0.240828974686066</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0792104846954539</v>
+        <v>0.2689092288023822</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8291683780629514</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.8249792526868147</v>
-      </c>
-      <c r="J7" t="n">
-        <v>25.18079767178642</v>
+        <v>26.36793236381755</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +645,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.332503239691884</v>
+        <v>3.884923076923076</v>
       </c>
       <c r="C8" t="n">
-        <v>2.258784850519582</v>
+        <v>2.005764577520506</v>
       </c>
       <c r="D8" t="n">
-        <v>1.275894941232602</v>
+        <v>1.059037370656025</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7613507843784619</v>
+        <v>0.542980925246811</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5336702779734646</v>
+        <v>0.355634708221188</v>
       </c>
       <c r="G8" t="n">
-        <v>0.150092805546437</v>
+        <v>-0.714069491952032</v>
       </c>
       <c r="H8" t="n">
-        <v>1.275894941232602</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-0.4173430637859449</v>
-      </c>
-      <c r="J8" t="n">
-        <v>29.81281618887015</v>
+        <v>49.57142857142857</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +673,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.297035853242284</v>
+        <v>1.54828647530597</v>
       </c>
       <c r="C9" t="n">
-        <v>1.697809794214145</v>
+        <v>1.46430843738422</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8562049726558092</v>
+        <v>0.2721539148269986</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5345199867736541</v>
+        <v>0.2414876386139475</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4178948825234093</v>
+        <v>0.09680185225817421</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08104714984533139</v>
+        <v>0.6116258030479832</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8562049726558092</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.6975964498132601</v>
-      </c>
-      <c r="J9" t="n">
-        <v>26.98104385230003</v>
+        <v>31.16545706845504</v>
       </c>
     </row>
   </sheetData>

--- a/data/calcs/relief_calcs/season_mu_std.xlsx
+++ b/data/calcs/relief_calcs/season_mu_std.xlsx
@@ -477,25 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.856595744680852</v>
+        <v>5.463630573248407</v>
       </c>
       <c r="C2" t="n">
-        <v>1.390973883572568</v>
+        <v>2.240568743774976</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9647241327751196</v>
+        <v>1.322903771964442</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4773101076555024</v>
+        <v>0.7159837955602021</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5428939892344498</v>
+        <v>0.6407549044741776</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4822692384370016</v>
+        <v>-0.4845913390137646</v>
       </c>
       <c r="H2" t="n">
-        <v>25.5</v>
+        <v>25.35414012738854</v>
       </c>
     </row>
     <row r="3">
@@ -505,25 +505,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.012668185914867</v>
+        <v>4.633661436405054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7710224487531796</v>
+        <v>1.683809642222656</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3964093900324763</v>
+        <v>0.8144442427531886</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1321134012105241</v>
+        <v>0.5966637052870977</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1511331064038821</v>
+        <v>0.5497627707135105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2023152211916691</v>
+        <v>0.8797663191006361</v>
       </c>
       <c r="H3" t="n">
-        <v>19.14605516996722</v>
+        <v>25.17899060047703</v>
       </c>
     </row>
     <row r="4">
@@ -533,25 +533,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.251509433962264</v>
+        <v>5.231111111111111</v>
       </c>
       <c r="C4" t="n">
-        <v>1.833867010766729</v>
+        <v>2.311781089734088</v>
       </c>
       <c r="D4" t="n">
-        <v>1.365235215333583</v>
+        <v>1.295143358830755</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9275340821386783</v>
+        <v>0.7691535895238956</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6017599952851432</v>
+        <v>0.5403056057900927</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4484816159809507</v>
+        <v>-0.4549955092976475</v>
       </c>
       <c r="H4" t="n">
-        <v>35.125</v>
+        <v>24.35636856368564</v>
       </c>
     </row>
     <row r="5">
@@ -561,25 +561,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.211633348047831</v>
+        <v>4.720194510067887</v>
       </c>
       <c r="C5" t="n">
-        <v>1.685498202578049</v>
+        <v>1.7711033548038</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5570616445305397</v>
+        <v>0.8911236331312969</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6100793432578291</v>
+        <v>0.6063470312657683</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3165990979509523</v>
+        <v>0.4324091930454509</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6372786881767656</v>
+        <v>0.8113933948058411</v>
       </c>
       <c r="H5" t="n">
-        <v>33.5790644811402</v>
+        <v>24.21593482427432</v>
       </c>
     </row>
     <row r="6">
@@ -589,25 +589,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.197692307692307</v>
+        <v>5.521489932885906</v>
       </c>
       <c r="C6" t="n">
-        <v>1.979397761301615</v>
+        <v>2.443767023738328</v>
       </c>
       <c r="D6" t="n">
-        <v>1.125522514366197</v>
+        <v>1.350303711758079</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5956844908491161</v>
+        <v>0.7956553141680518</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5292202421171368</v>
+        <v>0.6276022584510498</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5590969144459537</v>
+        <v>-0.5169876928642829</v>
       </c>
       <c r="H6" t="n">
-        <v>36.125</v>
+        <v>25.55704697986577</v>
       </c>
     </row>
     <row r="7">
@@ -617,25 +617,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.781673167564158</v>
+        <v>4.749391535190125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9404541246601121</v>
+        <v>1.789747079028432</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3474999627343497</v>
+        <v>0.829383928103861</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1251872369958739</v>
+        <v>0.5885783525344821</v>
       </c>
       <c r="F7" t="n">
-        <v>0.240828974686066</v>
+        <v>0.5083603725834306</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2689092288023822</v>
+        <v>0.815415571167421</v>
       </c>
       <c r="H7" t="n">
-        <v>26.36793236381755</v>
+        <v>25.18164722291512</v>
       </c>
     </row>
     <row r="8">
@@ -645,25 +645,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.884923076923076</v>
+        <v>5.100556492411467</v>
       </c>
       <c r="C8" t="n">
-        <v>2.005764577520506</v>
+        <v>2.258784850519582</v>
       </c>
       <c r="D8" t="n">
-        <v>1.059037370656025</v>
+        <v>1.275894941232602</v>
       </c>
       <c r="E8" t="n">
-        <v>0.542980925246811</v>
+        <v>0.7613507843784619</v>
       </c>
       <c r="F8" t="n">
-        <v>0.355634708221188</v>
+        <v>0.5336702779734646</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.714069491952032</v>
+        <v>-0.4173430637859449</v>
       </c>
       <c r="H8" t="n">
-        <v>49.57142857142857</v>
+        <v>29.81281618887015</v>
       </c>
     </row>
     <row r="9">
@@ -673,25 +673,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.54828647530597</v>
+        <v>4.484853849112721</v>
       </c>
       <c r="C9" t="n">
-        <v>1.46430843738422</v>
+        <v>1.697809794214145</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2721539148269986</v>
+        <v>0.8562049726558092</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2414876386139475</v>
+        <v>0.5345199867736541</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09680185225817421</v>
+        <v>0.4178948825234093</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6116258030479832</v>
+        <v>0.6975964498132601</v>
       </c>
       <c r="H9" t="n">
-        <v>31.16545706845504</v>
+        <v>26.98104385230003</v>
       </c>
     </row>
   </sheetData>
